--- a/quant_workgroup/ModelParameters.xlsx
+++ b/quant_workgroup/ModelParameters.xlsx
@@ -21,12 +21,12 @@
     <definedName name="sta3n">[1]Control!$D$2</definedName>
     <definedName name="stations">OFFSET([1]Hidden!$B$1,0,0,COUNTA([1]Hidden!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>Starting Rate (mean)</t>
   </si>
@@ -88,13 +88,13 @@
     <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wk)</t>
   </si>
   <si>
-    <t>Engagement in CC (mean)</t>
+    <t>Engagement (mean)</t>
   </si>
   <si>
     <t>The mean number of weeks that patients stay engaged with the team, receiving care coordination visits according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in care coordination across treatment episodes, regardless of gaps in service.  This version uses mean instead of median, and is not used in the model. (wks)</t>
   </si>
   <si>
-    <t>Median Engagement in CC</t>
+    <t>Median Engagement</t>
   </si>
   <si>
     <t>The median number of weeks that patients stay engaged with the team, receiving care coordination visits according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in care coordination across treatment episodes, regardless of gaps in service. (wks)</t>
@@ -139,15 +139,9 @@
     <t>An estimate of the total weekly number of medication management appointments available with this team. The estimate is calculated using the volume of medication management visits completed with the team over one year. (appt/wk)</t>
   </si>
   <si>
-    <t>Engagement in MM (mean)</t>
-  </si>
-  <si>
     <t>The mean number of weeks that patients stay engaged with the team, receiving medication management visits, according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in medication management across treatment episodes, regardless of gaps in service.  This version uses mean instead of median, and is not used in the model. (wks)</t>
   </si>
   <si>
-    <t>Median Engagement in MM</t>
-  </si>
-  <si>
     <t>The median number of weeks that patients stay engaged with the team, receiving medication management visits, according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in medication management across treatment episodes, regardless of gaps in service. (wks)</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
   </si>
   <si>
     <t>These estimates were calculated from the median weekly visit counts by the patient cohort with the team over one year. The array of those visit count medians was multiplied by another array to convert the visits into provider-facing hours, so that the provider utilization could be held constant in the model. The array of multipliers takes into account how long each visit lasts on average (e.g. half an hour for medication management visits) and how many patients can be served in one visit (e.g. 6 patients for group visits). The array is [1,1,1,0.5,0.5,0.25,0.1667]. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
-  </si>
-  <si>
-    <t>Median Engagement</t>
   </si>
   <si>
     <t>The median number of weeks that patients stay engaged with this team, receiving visits according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement across treatment episodes, regardless of gaps in service. (wks)</t>
@@ -759,7 +750,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>502</v>
+            <v>640</v>
           </cell>
         </row>
       </sheetData>
@@ -782,7 +773,7 @@
             <v>402</v>
           </cell>
           <cell r="H2">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
@@ -1740,11 +1731,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="126" style="14" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="36.5703125" customWidth="1"/>
@@ -1909,7 +1902,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2124,7 +2119,7 @@
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B11" s="9">
         <v>117.72180400000001</v>
@@ -2139,12 +2134,12 @@
         <v>116.05678899999999</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>128.14285699999999</v>
@@ -2159,12 +2154,12 @@
         <v>126.571428</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>3.8610038610029998E-3</v>
@@ -2179,12 +2174,12 @@
         <v>0.83353557639271902</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2">
         <v>3.8652678078400001E-3</v>
@@ -2199,12 +2194,12 @@
         <v>0.834456101601325</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -2213,22 +2208,22 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F16" s="18"/>
     </row>
@@ -2258,7 +2253,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2276,47 +2273,47 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E2" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15">
         <v>0.40573152338000001</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="15">
         <v>0.25652173912999998</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="14"/>
@@ -2324,26 +2321,26 @@
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="15">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="15">
         <v>0.34690799396599997</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="14"/>
@@ -2351,34 +2348,34 @@
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="31">
         <v>0.28571428599999998</v>
@@ -2390,7 +2387,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="31">
         <v>0.18181818199999999</v>
@@ -2401,7 +2398,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="15">
         <v>0</v>
@@ -2412,7 +2409,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="15">
         <v>0</v>
@@ -2423,20 +2420,20 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="15">
         <v>7</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -2446,23 +2443,23 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="28">
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="31">
         <v>4.1666666666666664E-2</v>
@@ -2473,7 +2470,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="32">
         <v>4.3859649122807015E-2</v>
@@ -2484,7 +2481,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="28">
         <v>9.5238095238095233E-2</v>
@@ -2495,7 +2492,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="31">
         <v>6.5217391304347824E-2</v>
@@ -2506,7 +2503,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="32">
         <v>6.3829787234042548E-2</v>
@@ -2517,7 +2514,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="28">
         <v>0</v>
@@ -2528,7 +2525,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -2539,7 +2536,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -2550,20 +2547,20 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="28">
         <v>34</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="15">
         <v>72</v>
@@ -2574,7 +2571,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="15">
         <v>114</v>
@@ -2585,7 +2582,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="28">
         <v>21</v>
@@ -2596,7 +2593,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" s="15">
         <v>46</v>
@@ -2607,7 +2604,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="15">
         <v>94</v>
@@ -2618,7 +2615,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="28">
         <v>0</v>
@@ -2629,7 +2626,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
@@ -2640,7 +2637,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="15">
         <v>0</v>
@@ -2650,22 +2647,22 @@
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="28">
         <v>6.5576920000000003</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>14</v>
@@ -2700,154 +2697,154 @@
         <v>32</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="28">
         <v>666</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="37">
         <v>200</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="39">
         <v>3.33</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="31">
         <v>0.60210210210199999</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" s="31">
         <v>0.27477477477399997</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" s="31">
         <v>2.7027027027000002E-2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="31">
         <v>3.0030030030000002E-3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="31">
         <v>0.60210210210199999</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="31">
         <v>0.27477477477399997</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" s="31">
         <v>2.7027027027000002E-2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="31">
         <v>3.0030030030000002E-3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E47" s="23"/>
     </row>
@@ -2873,7 +2870,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2910,10 +2909,10 @@
         <v>0.23067499999999999</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -2942,15 +2941,15 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -2974,15 +2973,15 @@
         <v>33.428570999999998</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
@@ -3006,10 +3005,10 @@
         <v>0.14560439560399999</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3039,12 +3038,12 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="15">
         <v>27.423075999999998</v>
@@ -3068,15 +3067,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="31">
         <v>6.6492829204000001E-2</v>
@@ -3101,12 +3100,12 @@
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="31">
         <v>0.33507170795300001</v>
@@ -3134,7 +3133,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="31">
         <v>1.2603215992999999E-2</v>
@@ -3162,7 +3161,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="31">
         <v>0.53455019556700001</v>
@@ -3194,7 +3193,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="31">
         <v>0.83572359843499999</v>
@@ -3226,28 +3225,28 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="E12" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="F12" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="G12" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="H12" s="48" t="s">
         <v>146</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>149</v>
       </c>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>

--- a/quant_workgroup/ModelParameters.xlsx
+++ b/quant_workgroup/ModelParameters.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="6975"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="CCParams" sheetId="1" r:id="rId1"/>
     <sheet name="MMParams" sheetId="2" r:id="rId2"/>
     <sheet name="PSYParams" sheetId="3" r:id="rId3"/>
     <sheet name="AggParams" sheetId="4" r:id="rId4"/>
+    <sheet name="SPParams" sheetId="5" r:id="rId5"/>
+    <sheet name="DataNotes" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Presets">OFFSET([1]Hidden!$A$1,0,0,COUNTA([1]Hidden!$A:$A),1)</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="231">
   <si>
     <t>Starting Rate (mean)</t>
   </si>
@@ -34,6 +36,9 @@
     <t>An estimate of the number of new patients starting with the team per week, calculated from the number of patients seen for care coordination in one year who have never had a care coordination visit with this team before. (pts/wk)</t>
   </si>
   <si>
+    <t>See the DataNotes tab for details on the patient cohort and encounter type bins.</t>
+  </si>
+  <si>
     <t>One and Done %</t>
   </si>
   <si>
@@ -46,12 +51,18 @@
     <t>The proportion of care coordination appointments with this team that no-showed or were cancelled after the appointment was supposed to have happened. (pct)</t>
   </si>
   <si>
+    <t>These estimates were calculated from the visits and appointments of the patient cohort.  Note that missed appointments do not have an associated visit record, and so do not have an encounter type. Therefore, the missed appointment percentage for care coordination was estimated by using patient characteristics: all the patients who had a care coordination visit have all their missed appointments counted towards care coordination. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
+  </si>
+  <si>
     <t>Return Visit Interval (mean)</t>
   </si>
   <si>
     <t>The mean return-to-clinic visit interval for care coordination visits with this team, calculated from the number of visits per patient over their entire engagement time. This version uses mean instead of median, and is not used in the model. (wks)</t>
   </si>
   <si>
+    <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient, their total number of visits was divided by their total engagement time. The Return visit interval used in the model is for the median patient. See the DataNotes tab for details on the patient cohort and encounter type bins.</t>
+  </si>
+  <si>
     <t>Return Visit Interval (median)</t>
   </si>
   <si>
@@ -76,6 +87,9 @@
     <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year.  This version uses the mean instead of the 75th percentile, and is not used in the model. (appt/wk)</t>
   </si>
   <si>
+    <t>These estimates were calculated from the weekly visit counts by the patient cohort with the team over one year. The model uses the 75th percentile.</t>
+  </si>
+  <si>
     <t>Appointment Supply (median)</t>
   </si>
   <si>
@@ -94,6 +108,9 @@
     <t>The mean number of weeks that patients stay engaged with the team, receiving care coordination visits according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in care coordination across treatment episodes, regardless of gaps in service.  This version uses mean instead of median, and is not used in the model. (wks)</t>
   </si>
   <si>
+    <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient in the cohort, their first and last care coordination visits were found and subtracted to get an engagement time in weeks.  Note that the first visit could be years ago, and the last visit could be the day before the query was run. Also, note that gaps in treatment are bridged, regardless of how long the gap is. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
+  </si>
+  <si>
     <t>Median Engagement</t>
   </si>
   <si>
@@ -118,6 +135,9 @@
     <t>The proportion of medication management appointments with this team that no-showed or were cancelled after the appointment was supposed to have happened. (pct)</t>
   </si>
   <si>
+    <t>These estimates were calculated from the visits and appointments of the patient cohort.  Note that missed appointments do not have an associated visit record, and so do not have an encounter type. Therefore, the missed appointment percentage for medication management was estimated by using patient characteristics: all the patients who had a medication management visit have all their missed appointments counted towards medication management. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
+  </si>
+  <si>
     <t>The mean return-to-clinic visit interval for medication management visits with this team, calculated from the number of visits per patient over their entire engagement time. Not used in the model. (wks)</t>
   </si>
   <si>
@@ -142,6 +162,9 @@
     <t>The mean number of weeks that patients stay engaged with the team, receiving medication management visits, according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in medication management across treatment episodes, regardless of gaps in service.  This version uses mean instead of median, and is not used in the model. (wks)</t>
   </si>
   <si>
+    <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient in the cohort, their first and last medication management visits were found and subtracted to get an engagement time in weeks.  Note that the first visit could be years ago, and the last visit could be the day before the query was run. Also, note that gaps in treatment are bridged, regardless of how long the gap is. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
+  </si>
+  <si>
     <t>The median number of weeks that patients stay engaged with the team, receiving medication management visits, according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in medication management across treatment episodes, regardless of gaps in service. (wks)</t>
   </si>
   <si>
@@ -151,6 +174,9 @@
     <t>An estimate of the team's appointment slots allocated to each diagnosis for clinics where the provider has a DEA X waiver. Evidence-based pharmacotherapy for OUD is possible in these slots. (pct)</t>
   </si>
   <si>
+    <t>These estimates were calculated from the medication management visits of the patient cohort by diagnosis. The percentages are based on the assumption that medication management for OUD is only possible with an X waiver.</t>
+  </si>
+  <si>
     <t>Slots Allocation % (without X waiver)</t>
   </si>
   <si>
@@ -163,6 +189,9 @@
     <t>An estimate of the proportion of the team's total appointment slots where the provider has a DEA X waiver and evidence-based pharmacotherapy for OUD is possible. An X waivered provider may also provide other treatments in these slots. (pct)</t>
   </si>
   <si>
+    <t>This parameter is not estimated in the data. It is just provided here as an input to the model for later user manipulation.</t>
+  </si>
+  <si>
     <t>aud</t>
   </si>
   <si>
@@ -175,7 +204,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>family</t>
+    <t>Group</t>
   </si>
   <si>
     <t>Label</t>
@@ -199,6 +228,9 @@
     <t>Of patients who complete at least one psythotherapy visit within their first three months (starters), this is the proportion who  do not complete any more psychotherapy visits within three months, but return for at least one more psychotherapy visit after three months (return later). (pct)</t>
   </si>
   <si>
+    <t>See the DataNotes tab for details on these proportions and how the full set of 8 is calculated in the model from these 5.</t>
+  </si>
+  <si>
     <t>Initiators Who Quit Early %</t>
   </si>
   <si>
@@ -232,6 +264,9 @@
     <t>An estimate of appointments per week for each pattern of engagement, calculated from visits over their first three months of engagement. (appt/wk)</t>
   </si>
   <si>
+    <t>Note that these are visit frequencies in visits per week, so these numbers are the inverse of RVI. For each parameter, patients are categorized based on how many visits they receive within their first three months and whether or not they have any additional psychotherapy visits after three months. Then, the visits and duration are used to calculate the frequency just for that period (so that the parameter can apply to the corresponding stock in the model). There are a few exceptions. The first visit frequency is hard-coded to 1.1, because a frequency can't be calculated from just one visit, and 1.1 shows good model results.  Initiators who complete and completers have the same frequency, because an eighth visit within three months puts a patient into the completer category, but again a frequency can't be calculated from just one visit, and besides they must have had a high frequency of visits throughout their initial engagement period in order to reach that threshold. Therefore, the frequency for completers includes visits 2-7 as well.</t>
+  </si>
+  <si>
     <t>Initiators Who Quit Early Frequency</t>
   </si>
   <si>
@@ -262,6 +297,9 @@
     <t>An estimate of appointments per week for each pattern of engagement, calculated from visits after their first three months of engagement. (appt/wk)</t>
   </si>
   <si>
+    <t>After the patients have been categorized by patterns of engagement, those who return for additional visits after three months are further categorized into low, medium, and high groups based on duration of engagement. The medium group comprises the middle 50%, with low and high comprising 25% each. The duration values are the 25th percentile, 50th percentile, and 75th percentile values taken from the entire group, and then the frequencies are calculated from the median visit counts of each group.</t>
+  </si>
+  <si>
     <t>Starters Who Come Back Later Medium Frequency (median)</t>
   </si>
   <si>
@@ -340,16 +378,7 @@
     <t>The data pull's cohort of patients (the unique patients who had a visit with the team between 18 and 6 months ago).</t>
   </si>
   <si>
-    <t>Model Cohort</t>
-  </si>
-  <si>
-    <t>return six blanks here (double check with Tom on unused parameters)</t>
-  </si>
-  <si>
-    <t>Cohort Ratio</t>
-  </si>
-  <si>
-    <t>Ratio (not used)</t>
+    <t>This is the size of the patient cohort (see the DataNotes tab for details). It is an input to the psy model for the purpose of scaling the Sankey chart generated in the simulation UI.</t>
   </si>
   <si>
     <t>Diagnostic proportions</t>
@@ -361,6 +390,9 @@
     <t>An estimate of the proportion of the team's patients with post traumatic stress disorder (PTSD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of PTSD within their entire psychotherapy engagement.</t>
   </si>
   <si>
+    <t>These diagnostic proportions are estimated from the patient cohort (see the DataNotes tab for details) by simply counting how many patients have a visit with the given primary diagnosis and then dividing by the cohort size. Note that the proportions can and should sum to more than one, because many patients have multiple diagnoses and get care for each in different visits which are they coded with different primary diagnoses.</t>
+  </si>
+  <si>
     <t>DEP %</t>
   </si>
   <si>
@@ -430,6 +462,9 @@
     <t>These estimates were calculated from the visit timelines of the patient cohort. For each "new patient" (see new patient start rate below for details), their first visit was found, and all visits within three months after that visit were broken out into the encounter bins. These referral percentages are the proportions of the different services (encounter type bins) received within that window, per "new patient." The referral percentage for intakes is set to 1, based on the idea that the decision about what services the patient should get is an "intake/evaluation" or review visit in the model, regardless of how that visit was actually coded. Note that this is different from the appointment supply number shown above, which does use the CPT codes on visits. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
+    <t>The median return-to-clinic visit interval by encounter type bin with this team, calculated from the number of visits per patient over their entire engagement time. (wks)</t>
+  </si>
+  <si>
     <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient, their total number of visits was divided by their total engagement time. The Return visit intervals shown are for the median patient. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
@@ -467,13 +502,232 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Additional Details</t>
+  </si>
+  <si>
+    <t>Start Rates</t>
+  </si>
+  <si>
+    <t>GMH (mean)</t>
+  </si>
+  <si>
+    <t>An estimate of the initial start rate in each location, comprising both new patients and concurrent transfer patients. (pts/wk)</t>
+  </si>
+  <si>
+    <t>For these rates, the data will show 0 if there are no patients who fit the given description. See the DataNotes tab for an explanation of the transfer categorization algorithm, where concurrent is defined.</t>
+  </si>
+  <si>
+    <t>PCMHI (mean)</t>
+  </si>
+  <si>
+    <t>SMH (mean)</t>
+  </si>
+  <si>
+    <t>High Risk Flag Rates</t>
+  </si>
+  <si>
+    <t>An estimate of the rate at which patients are assigned a high risk for suicide flag while in treatment in each location. (pts/wk)</t>
+  </si>
+  <si>
+    <t>Note that the only requirements are that the patient is assigned a new high risk flag while in treatment in the location. The flag is not necessarily assigned by the providers of that team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to Unflag </t>
+  </si>
+  <si>
+    <t>GMH (median)</t>
+  </si>
+  <si>
+    <t>Once a patient is assigned the high risk for suicide flag, this is the median number of weeks before the flag is removed. Or, if the patient already had the flag when they entered the location, it is the median number of weeks from when they first engaged with the team to the flag removal. (wks)</t>
+  </si>
+  <si>
+    <t>As above, the flag is not necessary added or removed by providers of the listed location. Also, note that the query only calculates from patients who did get the flag removed. Therefore, this parameter is an underestimation because it does not include the patients who never got the flag removed. We will consider in further testing including those patients, using the gap until the present day.  For these times and all the ones below, the data will show -1 if there are no patients who fit the given description.</t>
+  </si>
+  <si>
+    <t>PCMHI (median)</t>
+  </si>
+  <si>
+    <t>SMH (median)</t>
+  </si>
+  <si>
+    <t>Time from Flag to Referral</t>
+  </si>
+  <si>
+    <t>Flag PCMHI to GMH (median)</t>
+  </si>
+  <si>
+    <t>Once a patient is assigned the high risk for suicide flag, this is the median number of weeks before the patient is referred to another location. (wks)</t>
+  </si>
+  <si>
+    <t>Flag SMH to Inp (median)</t>
+  </si>
+  <si>
+    <t>Flag SMH to GMH (median)</t>
+  </si>
+  <si>
+    <t>Engagement Time Before Clean Transfer</t>
+  </si>
+  <si>
+    <t>GMH to PCMHI (median)</t>
+  </si>
+  <si>
+    <t>An estimate of the median time with the referring location before a clean transfer.  For patients who make a clean transfer, this calculation captures the time from the first visit to the last visit with the referring location before the first visit with the new team. Note that clean transfer patients can continue to see the referring team after the transfer, as long as the Return-to-clinic Visit Interval &gt; 12 weeks. (wks)</t>
+  </si>
+  <si>
+    <t>This calculation captures the difference from the first visit with the referring team to the last visit before a visit with the new team, if a clean transfer is detected. See the DataNotes tab for a description of the transfer detection algorithm, including the definition of a clean transfer.</t>
+  </si>
+  <si>
+    <t>GMH to SMH (median)</t>
+  </si>
+  <si>
+    <t>PCMHI to GMH (median)</t>
+  </si>
+  <si>
+    <t>PCMHI to SMH (median)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SMH to GMH (median)</t>
+  </si>
+  <si>
+    <t>SMH to PCMHI (median)</t>
+  </si>
+  <si>
+    <t>Engagement Time Before Quit</t>
+  </si>
+  <si>
+    <t>An estimate of the median time to quit for patients in each location, i.e. from when each patient starts with the location until their last visit. (wks)</t>
+  </si>
+  <si>
+    <t>A quit is when a patient has a gap in treatment of six months or more. See the DataNotes tab for definitions for all the transfer types.</t>
+  </si>
+  <si>
+    <t>Wait Times</t>
+  </si>
+  <si>
+    <t>An estimate of the median wait time for each clean transfer. This calculation captures the gap from the referring location (last visit) to the destination location (first visit). Note that clean transfer patients can continue to see the referring team after the transfer, as long as the Return-to-clinic Visit Interval &gt; 12 weeks. (wks)</t>
+  </si>
+  <si>
+    <t>This calculation captures the difference from the last visit with the referring team to the first visit with the new team, if a clean transfer is detected. See the DataNotes tab for a description of the transfer detection algorithm, including the definition of a clean transfer.</t>
+  </si>
+  <si>
+    <t>SMH to GMH (median)</t>
+  </si>
+  <si>
+    <t>Symptom Proportions</t>
+  </si>
+  <si>
+    <t>PCMHI High Symptom %</t>
+  </si>
+  <si>
+    <t>An estimate of the proportion of patients who have high symptoms for that location, based on the proportion of patients who step up to a higher level of care or risk during their engagement with that location. The model takes these step up proportions into account to determine initial symptom rates and treatment effects for each location. (pct)</t>
+  </si>
+  <si>
+    <t>To be included in the high symptom group, the patient must: be assigned a high risk for suicide flag, have an inpatient MH stay, transfer to SMH, or transfer to GMH from PCMHI.</t>
+  </si>
+  <si>
+    <t>GMH High Symptom %</t>
+  </si>
+  <si>
+    <t>SMH High Symptom %</t>
+  </si>
+  <si>
+    <t>Patient Cohort:</t>
+  </si>
+  <si>
+    <t>These data pulls use a somewhat novel method of building a patient cohort. In order to capture the very long engagement times of some patients, we decided we needed to be able to look backwards as far as possible to find patients' first visits.  Therefore, the patient cohort for each model is built by capturing all the unique patients who had a visit with the given team (from the user-supplied list of clinics/grids) within the correct encounter bin (see below) between 18 and 6 months ago.  From that set of clinics, patients, and CPT codes, the query then fetches all visits, no matter how long ago or how recent. Then, in order to capture parameters that should be time-bound, such as new patients per week, the query can use that single year (e.g. from the patient cohort, how many were new to the team in the year that was used to build the cohort? Because that patient count captures all new patients over the year, we can just divide by 52 to get an average new patients per week).  For parameters that should not be time-bound, all the visits can be considered, so that some patients will correctly be fed into the model with many visits over years of engagement.</t>
+  </si>
+  <si>
+    <t>Encounter bins:</t>
+  </si>
+  <si>
+    <t>The encounter types used in the models come from the following CPT codes:</t>
+  </si>
+  <si>
+    <t>case when cpt.CPTCode in ('90791','90792','99201','99202','99203','99204','99205') then 'Evaluation'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('90834','90837') then 'Psychotherapy 60-minute'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('90833','90836') then 'Psychotherapy with med mgmt'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('90853') then 'Group therapy'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('90847') then 'Family therapy'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('99212','99213','99214','99215') then 'Med mgmt'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('t1016','90832','90839') then 'Care or support'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('h0005') then 'Addiction'</t>
+  </si>
+  <si>
+    <t>when cpt.CPTCode in ('99441','99442','99443','98966','98967','98968') then 'Telephone'</t>
+  </si>
+  <si>
+    <t>when cpt.cptcode in ('97533','97150') then 'art/rec'</t>
+  </si>
+  <si>
+    <t>else 'adjunct' end as 'Encounter Type'</t>
+  </si>
+  <si>
+    <t>Psy model patient engagement patterns:</t>
+  </si>
+  <si>
+    <t>There are eight flows by patient engagement pattern, as shown in the Sankey diagram on the right. Note that there are three flows from the one visit node on the far left, three flows from the 2-7 node, and two flows from the 8+ node. The model takes proportional flow widths as inputs. I.e. proportional heights in the diagram shown, since the flows go horizontally. For example, the top flow, which connects the [OneVisit] node to the [Done Forever] node would be passed to the model as approximately 0.4, because the flow height is about 35% of the height of the [OneVisit] node. With that system, only 5 quantities need to be passed to the model, and the other three (one from each non-ending node) can be calculated. For example, if the flow from [OneVisit] to [2-7WithinThreeMonths] is also 0.4, then the model can calculate that the remaining flow, from [OneVisit] to [Back After Three Months] is 0.25, because 1-0.4-0.4 =0.2.</t>
+  </si>
+  <si>
+    <t>SP Model transfer detection and categorization algorithm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A detection/categorization algorithm is necessary in order to fill the model transfer parameters. "Clean" transfers are when a patient transfers from one location to another. Note that patients can continue to receive services in the old location even after a clean transfer, as long as they get care slowly (RVI &gt; 12 weeks). See the steps in the table to the right. "Concurrent" is for when a patient receives services in both locations without a transfer. A "bounce" is when a patient gets only one visit in the new location. </t>
+  </si>
+  <si>
+    <t>Step 1:</t>
+  </si>
+  <si>
+    <t>Identify a (potential) transfer by detecting a visit in one of the other sets of locations, either user-supplied or pcmh by stopcode.</t>
+  </si>
+  <si>
+    <t>Identify lost to f/u by detecting a gap (no visits) of at least 6 months. Note that this means a patient can be categorized as lost to followup, and then another new patient if they get more visits after the gap.</t>
+  </si>
+  <si>
+    <t>step 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check how many visits occur in the new location, unless the new location is PCMH (in which case skip this step).  If it's only 1 visit, then the transfer bounces, and the algorithm stops. </t>
+  </si>
+  <si>
+    <t>step 3:</t>
+  </si>
+  <si>
+    <t>Check for 2 visits with the old team after the first new team visit. If only 1 or 0 visits with the old team, then the transfer is clean, and the algorithm stops.</t>
+  </si>
+  <si>
+    <t>step 4:</t>
+  </si>
+  <si>
+    <t>If there are at least 2 visits with the old team after the first new team visit, then calculate rvi in the old team, using the number of visits and the datediff from the first new team visit until the last old team visit.  If rvi &gt; 12 weeks, then the tranfer is clean. Otherwise, it is concurrent.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,11 +755,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -548,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -598,35 +847,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -644,17 +906,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -689,13 +956,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,13 +973,32 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +1014,621 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1076325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1847850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="1076325"/>
+          <a:ext cx="8991600" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="5905500"/>
+          <a:ext cx="6096000" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="6115050"/>
+          <a:ext cx="609600" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="6524625"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5629275" y="5905500"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="8096250"/>
+          <a:ext cx="609600" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="8505825"/>
+          <a:ext cx="0" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5705475" y="7886700"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="7277100"/>
+          <a:ext cx="609600" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="7686675"/>
+          <a:ext cx="0" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5876925" y="7105650"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -734,29 +1636,35 @@
       <sheetName val="Control"/>
       <sheetName val="ClinicSelection"/>
       <sheetName val="AllClinics"/>
+      <sheetName val="SPTransfers"/>
       <sheetName val="Hidden"/>
       <sheetName val="dataDiag"/>
       <sheetName val="dataHF"/>
+      <sheetName val="dataMeas"/>
       <sheetName val="vizDiag"/>
       <sheetName val="vizHF"/>
       <sheetName val="vizEnc"/>
+      <sheetName val="vizMeas"/>
       <sheetName val="CCParams"/>
       <sheetName val="MMParams"/>
       <sheetName val="PSYParams"/>
       <sheetName val="AggParams"/>
+      <sheetName val="SPParams"/>
       <sheetName val="DataNotes"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>640</v>
+            <v>523</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
             <v>ALL</v>
@@ -773,7 +1681,7 @@
             <v>402</v>
           </cell>
           <cell r="H2">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
@@ -812,621 +1720,690 @@
         </row>
         <row r="8">
           <cell r="B8">
-            <v>459</v>
+            <v>452</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>460</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>463</v>
+            <v>460</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>501</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>502</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>503</v>
+            <v>501</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>504</v>
+            <v>502</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>506</v>
+            <v>503</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>508</v>
+            <v>504</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>509</v>
+            <v>506</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>512</v>
+            <v>508</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>515</v>
+            <v>509</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>516</v>
+            <v>512</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>517</v>
+            <v>514</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>518</v>
+            <v>515</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>519</v>
+            <v>516</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>520</v>
+            <v>517</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>521</v>
+            <v>518</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>523</v>
+            <v>519</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>526</v>
+            <v>520</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>528</v>
+            <v>521</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>529</v>
+            <v>523</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>531</v>
+            <v>526</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>534</v>
+            <v>528</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>537</v>
+            <v>529</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>538</v>
+            <v>531</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>539</v>
+            <v>532</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>540</v>
+            <v>534</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>541</v>
+            <v>537</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>542</v>
+            <v>538</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>544</v>
+            <v>539</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>546</v>
+            <v>540</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>548</v>
+            <v>541</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>549</v>
+            <v>542</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>550</v>
+            <v>543</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>552</v>
+            <v>544</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>553</v>
+            <v>546</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>554</v>
+            <v>548</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>556</v>
+            <v>549</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>557</v>
+            <v>550</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>558</v>
+            <v>552</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>561</v>
+            <v>553</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>562</v>
+            <v>554</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>564</v>
+            <v>555</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>565</v>
+            <v>556</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>568</v>
+            <v>557</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>570</v>
+            <v>558</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>573</v>
+            <v>561</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>575</v>
+            <v>562</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>578</v>
+            <v>564</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>580</v>
+            <v>565</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>581</v>
+            <v>567</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>583</v>
+            <v>568</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>585</v>
+            <v>570</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>586</v>
+            <v>573</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>589</v>
+            <v>575</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>590</v>
+            <v>578</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>593</v>
+            <v>580</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>595</v>
+            <v>581</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>596</v>
+            <v>583</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>598</v>
+            <v>584</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>600</v>
+            <v>585</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>603</v>
+            <v>586</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>605</v>
+            <v>589</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>607</v>
+            <v>590</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>608</v>
+            <v>593</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>610</v>
+            <v>595</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>612</v>
+            <v>596</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>613</v>
+            <v>597</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>614</v>
+            <v>598</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>618</v>
+            <v>600</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>619</v>
+            <v>603</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>620</v>
+            <v>605</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>621</v>
+            <v>607</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>623</v>
+            <v>608</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>626</v>
+            <v>609</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>629</v>
+            <v>610</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>630</v>
+            <v>612</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>631</v>
+            <v>613</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87">
-            <v>632</v>
+            <v>614</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88">
-            <v>635</v>
+            <v>618</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89">
-            <v>636</v>
+            <v>619</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90">
-            <v>637</v>
+            <v>620</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91">
-            <v>640</v>
+            <v>621</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>642</v>
+            <v>622</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93">
-            <v>644</v>
+            <v>623</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94">
-            <v>646</v>
+            <v>626</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95">
-            <v>648</v>
+            <v>629</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96">
-            <v>649</v>
+            <v>630</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97">
-            <v>650</v>
+            <v>631</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98">
-            <v>652</v>
+            <v>632</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99">
-            <v>653</v>
+            <v>635</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100">
-            <v>654</v>
+            <v>636</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101">
-            <v>655</v>
+            <v>637</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102">
-            <v>656</v>
+            <v>640</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103">
-            <v>657</v>
+            <v>642</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104">
-            <v>658</v>
+            <v>644</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105">
-            <v>659</v>
+            <v>646</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106">
-            <v>660</v>
+            <v>647</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107">
-            <v>662</v>
+            <v>648</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108">
-            <v>663</v>
+            <v>649</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>664</v>
+            <v>650</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110">
-            <v>666</v>
+            <v>652</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111">
-            <v>667</v>
+            <v>653</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112">
-            <v>668</v>
+            <v>654</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113">
-            <v>671</v>
+            <v>655</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114">
-            <v>672</v>
+            <v>656</v>
           </cell>
         </row>
         <row r="115">
           <cell r="B115">
-            <v>673</v>
+            <v>657</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116">
-            <v>674</v>
+            <v>658</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117">
-            <v>675</v>
+            <v>659</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118">
-            <v>676</v>
+            <v>660</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119">
-            <v>678</v>
+            <v>662</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120">
-            <v>679</v>
+            <v>663</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121">
-            <v>687</v>
+            <v>664</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122">
-            <v>688</v>
+            <v>666</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123">
-            <v>689</v>
+            <v>667</v>
           </cell>
         </row>
         <row r="124">
           <cell r="B124">
-            <v>691</v>
+            <v>668</v>
           </cell>
         </row>
         <row r="125">
           <cell r="B125">
-            <v>692</v>
+            <v>670</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>693</v>
+            <v>671</v>
           </cell>
         </row>
         <row r="127">
           <cell r="B127">
-            <v>695</v>
+            <v>672</v>
           </cell>
         </row>
         <row r="128">
           <cell r="B128">
-            <v>740</v>
+            <v>673</v>
           </cell>
         </row>
         <row r="129">
           <cell r="B129">
-            <v>756</v>
+            <v>674</v>
           </cell>
         </row>
         <row r="130">
           <cell r="B130">
+            <v>675</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>676</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>677</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>678</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>679</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>687</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>688</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>689</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>691</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>692</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>693</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>695</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>740</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>756</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
             <v>757</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1436,6 +2413,11 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1731,15 +2713,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="126" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="36.5703125" customWidth="1"/>
     <col min="10" max="10" width="94.7109375" customWidth="1"/>
   </cols>
@@ -1754,142 +2734,168 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>0.25075075074999997</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>0.20930499999999999</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>23.418837</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>5.4632959999999997</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>4.1428570000000002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
         <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
         <v>73.770683000000005</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>62.714284999999997</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>25</v>
+      <c r="D34" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>26</v>
+      <c r="D35" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1902,8 +2908,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,33 +2939,37 @@
         <v>23.192307</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.05</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>5.3364269141000002E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>4.4811320754000003E-2</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G2" s="7"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>0.20619599999999999</v>
@@ -1974,32 +2984,38 @@
         <v>0.214587</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
         <v>23.157893999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>23.235294</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>16.428571000000002</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>24.613990999999999</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -2014,32 +3030,36 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
         <v>1.928571</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>4.7072200000000004</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>2.571428</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>4.4076849999999999</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1.6428569999999998</v>
@@ -2054,52 +3074,59 @@
         <v>4.7142850000000003</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
         <v>61</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
         <v>65</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>75</v>
@@ -2110,36 +3137,42 @@
       <c r="D10" s="22">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
         <v>117.72180400000001</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>108.45693199999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>93.979590999999999</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>116.05678899999999</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>128.14285699999999</v>
@@ -2154,12 +3187,15 @@
         <v>126.571428</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>3.8610038610029998E-3</v>
@@ -2174,12 +3210,15 @@
         <v>0.83353557639271902</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>3.8652678078400001E-3</v>
@@ -2194,12 +3233,15 @@
         <v>0.834456101601325</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -2208,38 +3250,41 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>48</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2253,8 +3298,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +3308,7 @@
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88" style="14" customWidth="1"/>
-    <col min="5" max="5" width="70" customWidth="1"/>
+    <col min="5" max="5" width="85.42578125" style="44" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" customWidth="1"/>
@@ -2272,594 +3317,609 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>49</v>
+      <c r="A2" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>54</v>
+      <c r="A3" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C3" s="15">
         <v>0.40573152338000001</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15">
         <v>0.25652173912999998</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="E4" s="28"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C5" s="15">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C6" s="15">
         <v>0.34690799396599997</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="E6" s="28"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="15" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="A8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="23"/>
+      <c r="D8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="34">
         <v>0.28571428599999998</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="34">
         <v>0.18181818199999999</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
-        <v>70</v>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="15">
         <v>0</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
-        <v>71</v>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="15">
         <v>0</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>72</v>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="15">
         <v>7</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="23"/>
+      <c r="D13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="31" t="s">
-        <v>74</v>
+      <c r="A14" s="29"/>
+      <c r="B14" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="A15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="31">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="D15" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="32">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="35">
         <v>4.3859649122807015E-2</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="A18" s="33"/>
+      <c r="B18" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="31">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="34">
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="32">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="35">
         <v>6.3829787234042548E-2</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="31">
         <v>0</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
-        <v>84</v>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>85</v>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="28">
+      <c r="A24" s="33"/>
+      <c r="B24" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="31">
         <v>34</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
-        <v>88</v>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="15">
         <v>72</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
-        <v>89</v>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="15">
         <v>114</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="A27" s="33"/>
+      <c r="B27" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="31">
         <v>21</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
-        <v>91</v>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34" t="s">
+        <v>103</v>
       </c>
       <c r="C28" s="15">
         <v>46</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31" t="s">
-        <v>92</v>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="C29" s="15">
         <v>94</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="A30" s="33"/>
+      <c r="B30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="31">
         <v>0</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
-        <v>94</v>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="31" t="s">
-        <v>95</v>
+      <c r="A32" s="29"/>
+      <c r="B32" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="C32" s="15">
         <v>0</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="A33" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="31">
         <v>6.5576920000000003</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="35">
+      <c r="A34" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="38">
         <v>32</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="37">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="40">
         <v>32</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="23"/>
+        <v>31</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="32">
+      <c r="A36" s="41"/>
+      <c r="B36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="35">
         <v>32</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="28">
+      <c r="A37" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="31">
         <v>666</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="23"/>
+        <v>115</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="37">
-        <v>200</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="23"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40">
+        <v>0</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="39">
-        <v>3.33</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="23"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42">
+        <v>0</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="31">
+      <c r="A40" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="34">
         <v>0.60210210210199999</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="31">
+      <c r="A41" s="43"/>
+      <c r="B41" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="34">
         <v>0.27477477477399997</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="23"/>
+        <v>122</v>
+      </c>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="31">
+      <c r="A42" s="43"/>
+      <c r="B42" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="34">
         <v>2.7027027027000002E-2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="31">
+      <c r="A43" s="43"/>
+      <c r="B43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="34">
         <v>3.0030030030000002E-3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="31">
+      <c r="A44" s="43"/>
+      <c r="B44" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="34">
         <v>0.60210210210199999</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="23"/>
+        <v>128</v>
+      </c>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="31">
+      <c r="A45" s="43"/>
+      <c r="B45" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="34">
         <v>0.27477477477399997</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="23"/>
+        <v>130</v>
+      </c>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="31">
+      <c r="A46" s="43"/>
+      <c r="B46" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="34">
         <v>2.7027027027000002E-2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="23"/>
+        <v>132</v>
+      </c>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="31">
+      <c r="A47" s="43"/>
+      <c r="B47" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="34">
         <v>3.0030030030000002E-3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="23"/>
+        <v>134</v>
+      </c>
+      <c r="E47" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="D24:D32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A47"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="D15:D23"/>
-    <mergeCell ref="D24:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2870,8 +3930,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,7 +3945,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="15">
         <v>0</v>
@@ -2909,15 +3969,15 @@
         <v>0.23067499999999999</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="15">
         <v>12</v>
@@ -2940,16 +4000,16 @@
       <c r="H2" s="15">
         <v>9.6666666666666661</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>127</v>
+      <c r="I2" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -2973,15 +4033,15 @@
         <v>33.428570999999998</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
@@ -3004,16 +4064,16 @@
       <c r="H4" s="15">
         <v>0.14560439560399999</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>132</v>
+      <c r="I4" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
@@ -3036,14 +4096,16 @@
       <c r="H5" s="15">
         <v>2.6288265306119998</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="J5" s="14" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B6" s="15">
         <v>27.423075999999998</v>
@@ -3066,309 +4128,309 @@
       <c r="H6" s="21">
         <v>0</v>
       </c>
-      <c r="I6" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>136</v>
+      <c r="I6" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="34">
         <v>6.6492829204000001E-2</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="34">
         <v>2.1818181818E-2</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="34">
         <v>2.0833333333000002E-2</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="34">
         <v>3.0241935482999999E-2</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="34">
         <v>1.3673088874999999E-2</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="34">
         <v>6.0310166569999997E-2</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="34">
         <v>6.0957910014E-2</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="44" t="s">
-        <v>137</v>
+      <c r="I7" s="32"/>
+      <c r="J7" s="48" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="A8" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="34">
         <v>0.33507170795300001</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C8" s="34">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34">
         <v>0.145833333333</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="34">
         <v>0.20766129032200001</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="34">
         <v>0.30142945929100001</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="34">
         <v>0.19586444572</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="34">
         <v>0.13207547169799999</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="45"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="34">
         <v>1.2603215992999999E-2</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C9" s="34">
         <v>0</v>
       </c>
-      <c r="E9" s="31">
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34">
         <v>9.0725806449999998E-3</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="34">
         <v>4.350528278E-3</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="34">
         <v>1.1487650775E-2</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="34">
         <v>8.7082728589999991E-3</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="45"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="34">
         <v>0.53455019556700001</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34">
         <v>0.67361111111100003</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="34">
         <v>0.5</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="34">
         <v>0.54133001864499997</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="34">
         <v>0.43710511200399998</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="34">
         <v>0.66618287372999996</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="A11" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="34">
         <v>0.83572359843499999</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="34">
         <v>0.51090909090900005</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="34">
         <v>0.256944444444</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="34">
         <v>0.48689516128999999</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="34">
         <v>0.69981354878799995</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="34">
         <v>0.75990809879300003</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="34">
         <v>0.56894049346800002</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
+      <c r="A12" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="50"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
+      <c r="A15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
+      <c r="A16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="A18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="A19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="A20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="A21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="A22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="A23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="50"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="50"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3378,4 +4440,629 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="57">
+        <v>9.0769230000000007</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="57">
+        <v>1.173076</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="57">
+        <v>9.6153000000000002E-2</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="57">
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="57">
+        <v>9.6153000000000002E-2</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1.9230000000000001E-2</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="57">
+        <v>16</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="57">
+        <v>20.428571000000002</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="57">
+        <v>22.285713999999999</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="57">
+        <v>9.4999994999999995</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="57">
+        <v>4.8571419999999996</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="57">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="57">
+        <v>40.857142000000003</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="57">
+        <v>23.571428000000001</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="57">
+        <v>75.285713999999999</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="57">
+        <v>21.142856999999999</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="57">
+        <v>104.42857100000001</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="57">
+        <v>84.428571000000005</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="57">
+        <v>33.999999500000001</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="57">
+        <v>35.571427999999997</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="57">
+        <v>49</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="49"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="57">
+        <v>20.142856999999999</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="57">
+        <v>12.071427999999999</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="49"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="57">
+        <v>34.7857135</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="49"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="57">
+        <v>9.7857139999999987</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="49"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="57">
+        <v>28.928570999999998</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="49"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="57">
+        <v>47.428570999999998</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="49"/>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="57">
+        <v>0.54703832752600001</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="57">
+        <v>2.6694045174000001E-2</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="49"/>
+    </row>
+    <row r="31" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="57">
+        <v>8.9285714284999998E-2</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="D30" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="62"/>
+    </row>
+    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="D31" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="62"/>
+    </row>
+    <row r="32" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="D32" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>